--- a/EntireBoard/BOM.xlsx
+++ b/EntireBoard/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiyangzhang/Desktop/NeuralRecorder/EntireBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5749A381-3E64-0B46-B3D6-75FDE9C5D7B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8F607-7A94-D84F-86B6-6FE1C85BB16D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="460" windowWidth="18980" windowHeight="14480" xr2:uid="{CB31685E-8979-C24C-AC40-0D6B15E33466}"/>
+    <workbookView xWindow="2380" yWindow="460" windowWidth="23140" windowHeight="14460" xr2:uid="{CB31685E-8979-C24C-AC40-0D6B15E33466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,75 @@
   </si>
   <si>
     <t>connection btw XDS110 and CC</t>
+  </si>
+  <si>
+    <t>current sense resistor</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>667-ERJ-MFBAF10MX</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ERJ-MFBAF10MX?qs=sGAEpiMZZMtlleCFQhR%2fzRH%2fPnzm6Qg0kawuZXKFDVkf2mAFMVBMuA%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/315/RDN0000C328-1365505.pdf</t>
+  </si>
+  <si>
+    <t>749-SM0402GC</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bivar/SM0402GC?qs=sGAEpiMZZMsl8UZd3ZuU6aAY3C3HMTrKStrc3C%252bshI%2fhhMFkdt6RXA%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/50/Bivar-3-22-2017-SM0402GC-1158932.pdf</t>
+  </si>
+  <si>
+    <t>green led</t>
+  </si>
+  <si>
+    <t>measure power consumption</t>
+  </si>
+  <si>
+    <t>Bivar SM0402GC</t>
+  </si>
+  <si>
+    <t>Panasonic ERJ-MFBAF10MX</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>for resetting mcu</t>
+  </si>
+  <si>
+    <t>1188E-1K2-V-T/R</t>
+  </si>
+  <si>
+    <t>113-1188E1K2VTR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diptronics/1188E-1K2-V-T-R?qs=MLItCLRbWswadUUxegNFmg%3D%3D</t>
+  </si>
+  <si>
+    <t>http://www.dip.com.tw/en/en-product-information/en-switch004/item/2445-1188</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samtec-inc/FFSD-05-D-02.00-01-N/SAM8217-ND/1106576</t>
+  </si>
+  <si>
+    <t>http://suddendocs.samtec.com/catalog_english/ffsd.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samtek FFSD-05-D-02.00-01-N	</t>
+  </si>
+  <si>
+    <t>SAM8217-ND</t>
+  </si>
+  <si>
+    <t>signal line indication</t>
   </si>
 </sst>
 </file>
@@ -130,9 +199,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,19 +211,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -185,21 +266,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,26 +599,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA42242D-18CC-8D43-891A-AE4354601FB0}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -549,7 +634,7 @@
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -565,94 +650,200 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="46" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" ht="46">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="8">
         <v>0.86</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>0.41</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>3.36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7.86</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/EntireBoard/BOM.xlsx
+++ b/EntireBoard/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiyangzhang/Desktop/NeuralRecorder/EntireBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8F607-7A94-D84F-86B6-6FE1C85BB16D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFF13D-ECF7-1F4E-B686-CEA4E20BAEBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="460" windowWidth="23140" windowHeight="14460" xr2:uid="{CB31685E-8979-C24C-AC40-0D6B15E33466}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24640" windowHeight="14460" xr2:uid="{CB31685E-8979-C24C-AC40-0D6B15E33466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,19 +201,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -229,15 +223,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,25 +254,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +588,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C84" sqref="C3:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -619,54 +605,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="46">
+    <row r="2" spans="1:10" ht="51">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>0.86</v>
       </c>
       <c r="G2" s="1"/>
@@ -685,16 +671,16 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.41</v>
       </c>
       <c r="G3" s="1"/>
@@ -719,10 +705,10 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>3.36</v>
       </c>
       <c r="G4" s="1"/>
@@ -744,13 +730,13 @@
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>7.86</v>
       </c>
       <c r="G5" s="1"/>
@@ -762,7 +748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -775,10 +761,10 @@
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>0.61</v>
       </c>
       <c r="G6" s="1"/>
@@ -790,23 +776,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <v>0.56999999999999995</v>
       </c>
       <c r="G7" s="1"/>
@@ -818,7 +804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -831,10 +817,10 @@
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.69</v>
       </c>
       <c r="G8" s="1"/>

--- a/EntireBoard/BOM.xlsx
+++ b/EntireBoard/BOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiyangzhang/Desktop/NeuralRecorder/EntireBoard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\NeuralRecorder\EntireBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFF13D-ECF7-1F4E-B686-CEA4E20BAEBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="24640" windowHeight="14460" xr2:uid="{CB31685E-8979-C24C-AC40-0D6B15E33466}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24640" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -192,16 +191,40 @@
   </si>
   <si>
     <t>signal line indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batteries </t>
+  </si>
+  <si>
+    <t>powering system</t>
+  </si>
+  <si>
+    <t>RJD3555HPPV30M</t>
+  </si>
+  <si>
+    <t>1572-1627-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/illinois-capacitor/RJD3555HPPV30M/1572-1627-ND/6159145</t>
+  </si>
+  <si>
+    <t>battery connector</t>
+  </si>
+  <si>
+    <t>connect the power to the system</t>
+  </si>
+  <si>
+    <t>WM7620CT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +249,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -254,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -271,6 +301,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA42242D-18CC-8D43-891A-AE4354601FB0}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C84" sqref="C3:C84"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
@@ -636,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51">
+    <row r="2" spans="1:10" ht="46.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,7 +697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34">
+    <row r="3" spans="1:10" ht="31">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -832,7 +865,65 @@
         <v>48</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>34.13*2</f>
+        <v>68.260000000000005</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>532610271</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f>0.98*4</f>
+        <v>3.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EntireBoard/BOM.xlsx
+++ b/EntireBoard/BOM.xlsx
@@ -222,23 +222,23 @@
     </r>
   </si>
   <si>
-    <t>0.22uF cap</t>
-  </si>
-  <si>
-    <t>GCM1555C1H221JA16D</t>
-  </si>
-  <si>
-    <t>490-4927-1-ND</t>
+    <t>22uF cap</t>
+  </si>
+  <si>
+    <t>CL05A226MQ5N6J8</t>
+  </si>
+  <si>
+    <t>1276-7090-1-ND</t>
   </si>
   <si>
     <r>
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>https://www.digikey.com/products/en?keywords=490-4927-1-ND</t>
+      <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL05A226MQ5N6J8/1276-7090-1-ND/7320732</t>
     </r>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <numFmt numFmtId="59" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="60" formatCode="&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -383,7 +383,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -415,8 +415,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="13"/>
-      <color indexed="14"/>
+      <color indexed="15"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -518,7 +524,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +536,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,7 +551,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -558,7 +564,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -574,7 +580,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -589,31 +595,28 @@
     <xf numFmtId="59" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -622,70 +625,64 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -709,6 +706,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff999999"/>
       <rgbColor rgb="ff333333"/>
     </indexedColors>
@@ -909,17 +907,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -947,10 +945,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1198,12 +1196,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1490,7 +1488,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1518,10 +1516,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1863,14 +1861,14 @@
       <c r="D3" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0.41</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" t="s" s="11">
         <v>21</v>
       </c>
@@ -1891,14 +1889,14 @@
       <c r="D4" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="14">
+      <c r="E4" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>3.36</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" t="s" s="11">
         <v>27</v>
       </c>
@@ -1919,14 +1917,14 @@
       <c r="D5" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>7.86</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" t="s" s="11">
         <v>33</v>
       </c>
@@ -1941,20 +1939,20 @@
       <c r="B6" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="18">
+      <c r="C6" t="s" s="17">
         <v>37</v>
       </c>
       <c r="D6" t="s" s="11">
         <v>38</v>
       </c>
-      <c r="E6" t="s" s="14">
+      <c r="E6" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>0.61</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" t="s" s="11">
         <v>40</v>
       </c>
@@ -1975,14 +1973,14 @@
       <c r="D7" t="s" s="11">
         <v>38</v>
       </c>
-      <c r="E7" t="s" s="14">
+      <c r="E7" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>0.57</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" t="s" s="11">
         <v>46</v>
       </c>
@@ -1997,20 +1995,20 @@
       <c r="B8" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="C8" t="s" s="18">
+      <c r="C8" t="s" s="17">
         <v>50</v>
       </c>
       <c r="D8" t="s" s="11">
         <v>38</v>
       </c>
-      <c r="E8" t="s" s="14">
+      <c r="E8" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>0.6899999999999999</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" t="s" s="11">
         <v>52</v>
       </c>
@@ -2025,29 +2023,29 @@
       <c r="B9" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="C9" t="s" s="20">
+      <c r="C9" t="s" s="19">
         <v>56</v>
       </c>
       <c r="D9" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="E9" t="s" s="21">
+      <c r="E9" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>34.13</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>2</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <f>34.13*2</f>
         <v>68.26000000000001</v>
       </c>
       <c r="I9" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="11">
@@ -2056,27 +2054,27 @@
       <c r="B10" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>532610271</v>
       </c>
       <c r="D10" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="21">
+      <c r="E10" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>0.98</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>4</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <f>0.98*4</f>
         <v>3.92</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" ht="16.6" customHeight="1">
       <c r="A11" t="s" s="11">
@@ -2085,196 +2083,210 @@
       <c r="B11" t="s" s="11">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="23">
+      <c r="C11" t="s" s="21">
         <v>64</v>
       </c>
       <c r="D11" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="E11" t="s" s="24">
+      <c r="E11" t="s" s="21">
         <v>65</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>0.21</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="22">
         <v>0.21</v>
       </c>
       <c r="I11" t="s" s="11">
         <v>66</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" ht="22.6" customHeight="1">
       <c r="A12" t="s" s="11">
         <v>67</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" t="s" s="23">
+      <c r="B12" s="23"/>
+      <c r="C12" t="s" s="21">
         <v>68</v>
       </c>
-      <c r="D12" t="s" s="27">
+      <c r="D12" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="E12" t="s" s="28">
+      <c r="E12" t="s" s="24">
         <v>69</v>
       </c>
-      <c r="F12" s="29">
-        <v>0.12</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="26"/>
+      <c r="F12" s="25">
+        <v>0.58</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="23"/>
       <c r="I12" t="s" s="11">
         <v>70</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" ht="22.6" customHeight="1">
       <c r="A13" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" t="s" s="31">
+      <c r="B13" s="26"/>
+      <c r="C13" t="s" s="27">
         <v>72</v>
       </c>
-      <c r="D13" t="s" s="27">
+      <c r="D13" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="E13" t="s" s="28">
+      <c r="E13" t="s" s="24">
         <v>73</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="29">
         <v>0.21</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13" t="s" s="11">
         <v>74</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="22.6" customHeight="1">
       <c r="A14" t="s" s="11">
         <v>75</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" t="s" s="34">
+      <c r="B14" s="30"/>
+      <c r="C14" t="s" s="31">
         <v>76</v>
       </c>
-      <c r="D14" t="s" s="27">
+      <c r="D14" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="E14" t="s" s="28">
+      <c r="E14" t="s" s="24">
         <v>77</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="32">
         <v>0.1</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14" t="s" s="11">
         <v>78</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" ht="22.6" customHeight="1">
       <c r="A15" t="s" s="11">
         <v>79</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" t="s" s="34">
+      <c r="B15" s="30"/>
+      <c r="C15" t="s" s="31">
         <v>80</v>
       </c>
-      <c r="D15" t="s" s="27">
+      <c r="D15" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="E15" t="s" s="28">
+      <c r="E15" t="s" s="24">
         <v>81</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>0.21</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="23"/>
       <c r="I15" t="s" s="11">
         <v>82</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" ht="22.6" customHeight="1">
       <c r="A16" t="s" s="11">
         <v>83</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" t="s" s="37">
+      <c r="B16" s="33"/>
+      <c r="C16" t="s" s="34">
         <v>84</v>
       </c>
-      <c r="D16" t="s" s="27">
+      <c r="D16" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="E16" t="s" s="38">
+      <c r="E16" t="s" s="35">
         <v>85</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="36">
         <v>0.1</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23"/>
       <c r="I16" t="s" s="11">
         <v>86</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" ht="23.55" customHeight="1">
       <c r="A17" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" t="s" s="40">
+      <c r="B17" s="15"/>
+      <c r="C17" t="s" s="37">
         <v>88</v>
       </c>
-      <c r="D17" t="s" s="27">
+      <c r="D17" t="s" s="28">
         <v>38</v>
       </c>
-      <c r="E17" t="s" s="41">
+      <c r="E17" t="s" s="38">
         <v>89</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="36">
         <v>0.6</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="20">
+        <v>2</v>
+      </c>
+      <c r="H17" s="23"/>
       <c r="I17" t="s" s="11">
         <v>90</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" ht="22.6" customHeight="1">
       <c r="A18" t="s" s="11">
         <v>91</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" t="s" s="28">
+      <c r="B18" s="15"/>
+      <c r="C18" t="s" s="24">
         <v>92</v>
       </c>
-      <c r="D18" t="s" s="27">
+      <c r="D18" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="E18" t="s" s="28">
+      <c r="E18" t="s" s="24">
         <v>93</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="39">
         <v>0.1</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="20">
+        <v>2</v>
+      </c>
+      <c r="H18" s="23"/>
       <c r="I18" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/EntireBoard/BOM.xlsx
+++ b/EntireBoard/BOM.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\NeuralRecorder\EntireBoard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AED109-6E89-41F9-8F4E-F4093AE95328}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -213,7 +230,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -233,7 +250,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -253,7 +270,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -273,7 +290,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -293,7 +310,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -313,7 +330,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -333,7 +350,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -353,7 +370,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
@@ -365,25 +382,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="60" formatCode="&quot;$&quot;0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -393,7 +399,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -409,13 +415,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Calibri"/>
@@ -560,129 +566,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -693,29 +661,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff999999"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -917,7 +941,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -936,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,9 +1211,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1206,7 +1236,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1225,7 +1255,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1281,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1333,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1472,9 +1502,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1488,7 +1524,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1507,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1537,7 +1573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1563,7 +1599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1758,309 +1794,332 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6667" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.649999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.8516" style="1" customWidth="1"/>
-    <col min="11" max="256" width="10.6719" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="1" customWidth="1"/>
+    <col min="11" max="256" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="16.649999999999999" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="46.5" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9">
         <v>0.86</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
       <c r="H2" s="10"/>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="31" customHeight="1">
-      <c r="A3" t="s" s="11">
+    <row r="3" spans="1:10" ht="31" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="11">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="13">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="14">
         <v>0.41</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
       <c r="H3" s="15"/>
-      <c r="I3" t="s" s="11">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s" s="11">
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" t="s" s="11">
+    <row r="4" spans="1:10" ht="16.649999999999999" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="13">
+      <c r="E4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="14">
         <v>3.36</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
       <c r="H4" s="15"/>
-      <c r="I4" t="s" s="11">
+      <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s" s="11">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" t="s" s="11">
+    <row r="5" spans="1:10" ht="16.649999999999999" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="16">
         <v>7.86</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
       <c r="H5" s="15"/>
-      <c r="I5" t="s" s="11">
+      <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s" s="11">
+      <c r="J5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="6" spans="1:10" ht="17" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="17">
+      <c r="C6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="11">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s" s="13">
+      <c r="E6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="18">
         <v>0.61</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
       <c r="H6" s="15"/>
-      <c r="I6" t="s" s="11">
+      <c r="I6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J6" t="s" s="11">
+      <c r="J6" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" t="s" s="11">
+    <row r="7" spans="1:10" ht="16.649999999999999" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="13">
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s" s="13">
+      <c r="E7" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="18">
-        <v>0.57</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G7" s="15">
+        <v>6</v>
+      </c>
       <c r="H7" s="15"/>
-      <c r="I7" t="s" s="11">
+      <c r="I7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s" s="11">
+      <c r="J7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="11">
+    <row r="8" spans="1:10" ht="17" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s" s="17">
+      <c r="C8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="D8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s" s="13">
+      <c r="E8" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="18">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G8" s="15"/>
+        <v>0.69</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
       <c r="H8" s="15"/>
-      <c r="I8" t="s" s="11">
+      <c r="I8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J8" t="s" s="11">
+      <c r="J8" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="11">
+    <row r="9" spans="1:10" ht="15.4" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s" s="19">
+      <c r="C9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s" s="11">
+      <c r="E9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="18">
-        <v>34.13</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="G9" s="20">
         <v>2</v>
       </c>
       <c r="H9" s="20">
         <f>34.13*2</f>
-        <v>68.26000000000001</v>
-      </c>
-      <c r="I9" t="s" s="11">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="11">
+    <row r="10" spans="1:10" ht="15.4" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="20">
         <v>532610271</v>
       </c>
-      <c r="D10" t="s" s="11">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="11">
+      <c r="E10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="18">
@@ -2076,20 +2135,20 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" ht="16.6" customHeight="1">
-      <c r="A11" t="s" s="11">
+    <row r="11" spans="1:10" ht="16.649999999999999" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="21">
+      <c r="C11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s" s="21">
+      <c r="E11" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="18">
@@ -2101,49 +2160,49 @@
       <c r="H11" s="22">
         <v>0.21</v>
       </c>
-      <c r="I11" t="s" s="11">
+      <c r="I11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" ht="22.6" customHeight="1">
-      <c r="A12" t="s" s="11">
+    <row r="12" spans="1:10" ht="22.65" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="23"/>
-      <c r="C12" t="s" s="21">
+      <c r="C12" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s" s="24">
+      <c r="E12" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="25">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G12" s="20">
         <v>2</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" t="s" s="11">
+      <c r="I12" s="11" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" ht="22.6" customHeight="1">
-      <c r="A13" t="s" s="11">
+    <row r="13" spans="1:10" ht="22.65" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" t="s" s="27">
+      <c r="C13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s" s="28">
+      <c r="D13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s" s="24">
+      <c r="E13" s="24" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="29">
@@ -2153,23 +2212,23 @@
         <v>1</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" t="s" s="11">
+      <c r="I13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" ht="22.6" customHeight="1">
-      <c r="A14" t="s" s="11">
+    <row r="14" spans="1:10" ht="22.65" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" t="s" s="31">
+      <c r="C14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D14" t="s" s="28">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s" s="24">
+      <c r="E14" s="24" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="32">
@@ -2179,23 +2238,23 @@
         <v>4</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" t="s" s="11">
+      <c r="I14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" ht="22.6" customHeight="1">
-      <c r="A15" t="s" s="11">
+    <row r="15" spans="1:10" ht="22.65" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" t="s" s="31">
+      <c r="C15" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s" s="28">
+      <c r="D15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s" s="24">
+      <c r="E15" s="24" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="32">
@@ -2205,23 +2264,23 @@
         <v>3</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" t="s" s="11">
+      <c r="I15" s="11" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" ht="22.6" customHeight="1">
-      <c r="A16" t="s" s="11">
+    <row r="16" spans="1:10" ht="22.65" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" t="s" s="34">
+      <c r="C16" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s" s="28">
+      <c r="D16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s" s="35">
+      <c r="E16" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="36">
@@ -2231,23 +2290,23 @@
         <v>1</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" t="s" s="11">
+      <c r="I16" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" ht="23.55" customHeight="1">
-      <c r="A17" t="s" s="11">
+    <row r="17" spans="1:10" ht="23.5" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" t="s" s="37">
+      <c r="C17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s" s="28">
+      <c r="D17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E17" t="s" s="38">
+      <c r="E17" s="38" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="36">
@@ -2257,23 +2316,23 @@
         <v>2</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" t="s" s="11">
+      <c r="I17" s="11" t="s">
         <v>90</v>
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" ht="22.6" customHeight="1">
-      <c r="A18" t="s" s="11">
+    <row r="18" spans="1:10" ht="22.65" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" t="s" s="24">
+      <c r="C18" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s" s="28">
+      <c r="D18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s" s="24">
+      <c r="E18" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="39">
@@ -2283,24 +2342,24 @@
         <v>2</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" t="s" s="11">
+      <c r="I18" s="11" t="s">
         <v>94</v>
       </c>
       <c r="J18" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="I12" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="I13" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="I14" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="I15" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="I16" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="I17" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="I18" r:id="rId8" location="" tooltip="" display=""/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/EntireBoard/BOM.xlsx
+++ b/EntireBoard/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\NeuralRecorder\EntireBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiyangzhang/Desktop/NeuralRecorder/EntireBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AED109-6E89-41F9-8F4E-F4093AE95328}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906E2F3C-6BEE-3C4A-A9A9-0D436895C097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="460" windowWidth="21280" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -234,6 +233,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/BLM18HE152SN1D/490-5216-1-ND/1948392</t>
     </r>
@@ -254,6 +254,7 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL05A226MQ5N6J8/1276-7090-1-ND/7320732</t>
     </r>
@@ -274,6 +275,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.digikey.com/product-detail/en/johanson-technology-inc/500R07S1R8BV4T/712-1271-1-ND/1786733</t>
     </r>
@@ -294,6 +296,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.digikey.com/product-detail/en/kemet/C0402C120J5GACTU/399-1013-1-ND/411288</t>
     </r>
@@ -314,6 +317,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.digikey.com/product-detail/en/johanson-technology-inc/500R07S1R0BV4T/712-1266-1-ND/1786728</t>
     </r>
@@ -334,6 +338,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.digikey.com/product-detail/en/abracon-llc/AIML-0603-6R8K-T/535-11606-1-ND/2782848</t>
     </r>
@@ -354,6 +359,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.mouser.com/ProductDetail/TDK/MHQ0603P2N0BTD25?qs=sGAEpiMZZMukHu%252bjC5l7YWgkXgROw64Zk51RBDRudIE%3d</t>
     </r>
@@ -374,6 +380,7 @@
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/LQP03TN2N4B02D/490-6724-1-ND/5802372</t>
     </r>
@@ -397,12 +404,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -413,23 +422,27 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="15"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -601,9 +614,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -653,6 +663,7 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1816,10 +1827,10 @@
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.649999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
@@ -1833,7 +1844,7 @@
     <col min="11" max="256" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.649999999999999" customHeight="1">
+    <row r="1" spans="1:10" ht="16.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1885,9 +1896,12 @@
         <v>0.86</v>
       </c>
       <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="H2" s="39">
+        <f>F2*G2</f>
+        <v>1.72</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1915,9 +1929,12 @@
         <v>0.41</v>
       </c>
       <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="H3" s="39">
+        <f t="shared" ref="H3:H18" si="0">F3*G3</f>
+        <v>0.82</v>
+      </c>
       <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +1942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.649999999999999" customHeight="1">
+    <row r="4" spans="1:10" ht="16.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -1945,9 +1962,12 @@
         <v>3.36</v>
       </c>
       <c r="G4" s="15">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="H4" s="39">
+        <f t="shared" si="0"/>
+        <v>6.72</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +1975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.649999999999999" customHeight="1">
+    <row r="5" spans="1:10" ht="16.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -1977,7 +1997,10 @@
       <c r="G5" s="15">
         <v>1</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="39">
+        <f t="shared" si="0"/>
+        <v>7.86</v>
+      </c>
       <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
@@ -2007,7 +2030,10 @@
       <c r="G6" s="15">
         <v>2</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="39">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
       <c r="I6" s="11" t="s">
         <v>40</v>
       </c>
@@ -2015,7 +2041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.649999999999999" customHeight="1">
+    <row r="7" spans="1:10" ht="16.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -2037,7 +2063,10 @@
       <c r="G7" s="15">
         <v>6</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="39">
+        <f t="shared" si="0"/>
+        <v>3.42</v>
+      </c>
       <c r="I7" s="11" t="s">
         <v>46</v>
       </c>
@@ -2065,9 +2094,12 @@
         <v>0.69</v>
       </c>
       <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="0"/>
+        <v>1.38</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>52</v>
       </c>
@@ -2075,7 +2107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.4" customHeight="1">
+    <row r="9" spans="1:10" ht="15.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
@@ -2097,8 +2129,8 @@
       <c r="G9" s="20">
         <v>2</v>
       </c>
-      <c r="H9" s="20">
-        <f>34.13*2</f>
+      <c r="H9" s="39">
+        <f t="shared" si="0"/>
         <v>68.260000000000005</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -2106,7 +2138,7 @@
       </c>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="15.4" customHeight="1">
+    <row r="10" spans="1:10" ht="15.5" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
@@ -2128,14 +2160,14 @@
       <c r="G10" s="20">
         <v>4</v>
       </c>
-      <c r="H10" s="20">
-        <f>0.98*4</f>
+      <c r="H10" s="39">
+        <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="16.649999999999999" customHeight="1">
+    <row r="11" spans="1:10" ht="16.75" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
@@ -2157,7 +2189,8 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="39">
+        <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -2165,131 +2198,146 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="22.65" customHeight="1">
+    <row r="12" spans="1:10" ht="22.75" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>0.57999999999999996</v>
       </c>
       <c r="G12" s="20">
         <v>2</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="39">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
       <c r="I12" s="11" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="22.65" customHeight="1">
+    <row r="13" spans="1:10" ht="22.75" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>0.21</v>
       </c>
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="39">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="22.65" customHeight="1">
+    <row r="14" spans="1:10" ht="22.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>0.1</v>
       </c>
       <c r="G14" s="20">
         <v>4</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="39">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="22.65" customHeight="1">
+    <row r="15" spans="1:10" ht="22.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>0.21</v>
       </c>
       <c r="G15" s="20">
         <v>3</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="39">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
       <c r="I15" s="11" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="22.65" customHeight="1">
+    <row r="16" spans="1:10" ht="22.75" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <v>0.1</v>
       </c>
       <c r="G16" s="20">
         <v>1</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="39">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>86</v>
       </c>
@@ -2300,48 +2348,54 @@
         <v>87</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <v>0.6</v>
       </c>
       <c r="G17" s="20">
         <v>2</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="39">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
       <c r="I17" s="11" t="s">
         <v>90</v>
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="22.65" customHeight="1">
+    <row r="18" spans="1:10" ht="22.75" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>0.1</v>
       </c>
       <c r="G18" s="20">
         <v>2</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="39">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="I18" s="11" t="s">
         <v>94</v>
       </c>

--- a/EntireBoard/BOM.xlsx
+++ b/EntireBoard/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiyangzhang/Desktop/NeuralRecorder/EntireBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906E2F3C-6BEE-3C4A-A9A9-0D436895C097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDD1B22-E351-6E45-9631-6ECE197B8215}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="460" windowWidth="21280" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,13 +401,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -442,6 +435,12 @@
       <sz val="13"/>
       <color indexed="15"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -581,36 +580,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -629,18 +615,11 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -654,16 +633,37 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV18"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16.75" customHeight="1"/>
@@ -1877,529 +1877,544 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>0.86</v>
       </c>
-      <c r="G2" s="10">
-        <v>2</v>
-      </c>
-      <c r="H2" s="39">
+      <c r="G2" s="29">
+        <v>3</v>
+      </c>
+      <c r="H2" s="30">
         <f>F2*G2</f>
-        <v>1.72</v>
-      </c>
-      <c r="I2" s="5" t="s">
+        <v>2.58</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="9">
         <v>0.41</v>
       </c>
-      <c r="G3" s="15">
-        <v>2</v>
-      </c>
-      <c r="H3" s="39">
+      <c r="G3" s="33">
+        <v>3</v>
+      </c>
+      <c r="H3" s="30">
         <f t="shared" ref="H3:H18" si="0">F3*G3</f>
-        <v>0.82</v>
-      </c>
-      <c r="I3" s="11" t="s">
+        <v>1.23</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="9">
         <v>3.36</v>
       </c>
-      <c r="G4" s="15">
-        <v>2</v>
-      </c>
-      <c r="H4" s="39">
+      <c r="G4" s="33">
+        <v>3</v>
+      </c>
+      <c r="H4" s="30">
         <f t="shared" si="0"/>
-        <v>6.72</v>
-      </c>
-      <c r="I4" s="11" t="s">
+        <v>10.08</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="9">
         <v>7.86</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="33">
         <v>1</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="30">
         <f t="shared" si="0"/>
         <v>7.86</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="34">
         <v>0.61</v>
       </c>
-      <c r="G6" s="15">
-        <v>2</v>
-      </c>
-      <c r="H6" s="39">
+      <c r="G6" s="33">
+        <v>4</v>
+      </c>
+      <c r="H6" s="30">
         <f t="shared" si="0"/>
-        <v>1.22</v>
-      </c>
-      <c r="I6" s="11" t="s">
+        <v>2.44</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="34">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G7" s="15">
-        <v>6</v>
-      </c>
-      <c r="H7" s="39">
+      <c r="G7" s="33">
+        <v>12</v>
+      </c>
+      <c r="H7" s="30">
         <f t="shared" si="0"/>
-        <v>3.42</v>
-      </c>
-      <c r="I7" s="11" t="s">
+        <v>6.84</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="34">
         <v>0.69</v>
       </c>
-      <c r="G8" s="15">
-        <v>2</v>
-      </c>
-      <c r="H8" s="39">
+      <c r="G8" s="33">
+        <v>3</v>
+      </c>
+      <c r="H8" s="30">
         <f t="shared" si="0"/>
-        <v>1.38</v>
-      </c>
-      <c r="I8" s="11" t="s">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="34">
         <v>34.130000000000003</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="35">
         <v>2</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="30">
         <f t="shared" si="0"/>
         <v>68.260000000000005</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="35">
         <v>532610271</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="34">
         <v>0.98</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="35">
         <v>4</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="30">
         <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="16.75" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="34">
         <v>0.21</v>
       </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
+      <c r="G11" s="35">
+        <v>3</v>
+      </c>
+      <c r="H11" s="30">
         <f t="shared" si="0"/>
-        <v>0.21</v>
-      </c>
-      <c r="I11" s="11" t="s">
+        <v>0.63</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="39">
+      <c r="G12" s="35">
+        <v>6</v>
+      </c>
+      <c r="H12" s="30">
         <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I12" s="11" t="s">
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="37">
         <v>0.21</v>
       </c>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
-      <c r="H13" s="39">
+      <c r="G13" s="35">
+        <v>3</v>
+      </c>
+      <c r="H13" s="30">
         <f t="shared" si="0"/>
-        <v>0.21</v>
-      </c>
-      <c r="I13" s="11" t="s">
+        <v>0.63</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="38">
         <v>0.1</v>
       </c>
-      <c r="G14" s="20">
-        <v>4</v>
-      </c>
-      <c r="H14" s="39">
+      <c r="G14" s="35">
+        <v>12</v>
+      </c>
+      <c r="H14" s="30">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="I14" s="11" t="s">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="38">
         <v>0.21</v>
       </c>
-      <c r="G15" s="20">
-        <v>3</v>
-      </c>
-      <c r="H15" s="39">
+      <c r="G15" s="35">
+        <v>9</v>
+      </c>
+      <c r="H15" s="30">
         <f t="shared" si="0"/>
-        <v>0.63</v>
-      </c>
-      <c r="I15" s="11" t="s">
+        <v>1.89</v>
+      </c>
+      <c r="I15" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="23">
         <v>0.1</v>
       </c>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
-      <c r="H16" s="39">
+      <c r="G16" s="35">
+        <v>3</v>
+      </c>
+      <c r="H16" s="30">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="11" t="s">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="23">
         <v>0.6</v>
       </c>
-      <c r="G17" s="20">
-        <v>2</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="G17" s="35">
+        <v>6</v>
+      </c>
+      <c r="H17" s="30">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="I17" s="11" t="s">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="26">
         <v>0.1</v>
       </c>
-      <c r="G18" s="20">
-        <v>2</v>
-      </c>
-      <c r="H18" s="39">
+      <c r="G18" s="35">
+        <v>6</v>
+      </c>
+      <c r="H18" s="30">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="11" t="s">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="15"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.75" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40">
+        <f>SUM(H2:H18)</f>
+        <v>117.61</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
